--- a/500all/speech_level/speeches_CHRG-114hhrg96874.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96874.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. The Subcommittee on National Security will come to order.    Without objection, the chair is authorized to declare a recess at any time.    The chair notes that he is responsible under the rules of the House and the rules of the committee to maintain order and preserve decorum in the committee room. And we will do that, and disruption of business will not be tolerated. Thank you very much.    The chair now recognizes himself for an opening statement.    BDS is the campaign for boycott, divestment, and sanctions against Israel. The BDS movement seeks to target the state of Israel for boycotts, divestments, and sanctions. The purported goal is to leverage negative treatment of Israel to procure peace in the region. However, it is clear that the ultimate goal of the BDS movement is not to simply exert pressure on Israel to alter domestic policies; they would like to isolate, delegitimize, and irrevocably cripple the Jewish state.    BDS supporter and professor at Cal State University As'ad AbuKhalil has said, ``The real aim of BDS is to bring down the state of Israel. That should be stated as an unambiguous goal. There should not be any equivocation on the subject. Justice and freedom for the Palestinians are incompatible with the existence of the state of Israel.''    Another supporter of BDS, writer John Spritzler, stated, ``BDS' stated goals logically imply the end of Israel as a Jewish state.''    The notion that BDS is simply a harmless political movement is not true. BDS is better understood as an attempt to single out the world's only Jewish state for negative treatment through economic warfare.    U.S. policy should actively oppose attempts to boycott, divest, and sanction Israel. As our most dependable ally in the Middle East, the region's only democracy, and a country that shares our values, Israel deserves our steadfast support. We need to nip BDS in the bud.    This hearing is timely in light of recent comments by the State Department spokesman regarding anti-BDS language contained in the trade authority bill recently passed by Congress. While the bill specifically mandates that U.S. Negotiators pressure potential trading partners to reject BDS, the State Department indicated it would not enforce the language.    Congress included the anti-BDS provision because it wanted to stymie efforts emanating particularly from European countries, where anti-Semitism unfortunately is at a post-World War II high, to target Israel. Congress needs to conduct oversight of the State Department to ensure compliance with the statutory law.    Now, BDS is not a mainstream position in the United States, but it has gained traction on college campuses and in European capitals.    The goals of BDS go beyond the idea of encouraging corporations and academic institutions to boycott and divest from businesses in Judea and Samaria. Support for BDS is curious in light of the fact that many advocates for BDS have no qualms with trading with rogue regimes, such as Iran. Indeed, these advocates seek to apply a completely separate standard to the world's only Jewish state, while turning a blind eye to militant Islamic regimes that threaten both Israel and the United States.    According to a recent study by the Israeli Finance Ministry, boycotts present a significant threat to Israel's economy. Boycotts threaten inflation, layoffs, and a potential 20-percent drop in exports. If European companies and governments were to support BDS, Israeli officials maintain such action would constitute a dramatic blow to the Israeli economy.    Israeli and American businesses have been impacted by BDS through divestment by major church groups in the United States, such as the Presbyterian Church (U.S.A.) and the United Church of Christ.    The bottom line is that support for BDS undermines Israel's economy and national security. It is a direct threat to the continued vitality and success of the state of Israel.    Today, we will hear from the CEO of SodaStream, Daniel Birnbaum, an Israeli company that has been the target of BDS. The BDS campaign has specifically targeted this company, which has since moved its factory out of Judea and Samaria, resulting in the loss of thousands--the loss of jobs for many of the Palestinians and Israelis alike.    In the case of SodaStream's factory in Judea and Samaria, which is now closed, an estimated 500 Palestinian Arabs were employed there, out of a total of 1,300 employees. While SodaStream is working to secure work permits from the Israeli Government for these Palestinians and other former employees at their new factory, the future employment opportunities for many of these workers remain uncertain. These are the very people who BDS claims it intends to help.    We will also hear from Professor Eugene Kontorovich. He was a major force behind the South Carolina law prohibiting companies who want to contract with the State government from participating in boycotts based on nationality, national origin, ethnicity, race, and other categories of discrimination. He will also discuss existing Federal law, international law, and the potential impact of BDS on the international trading system.    Mr. Mark Dubowitz, the executive director of Foundation for Defense of Democracies, will also be joining us. He has written extensively on the topic of the BDS movement.    Mr. Matthew Duss is the guest of my minority colleagues, and he is the president of the Foundation for Middle East Peace.    The bottom line is that, one, this hearing will be critical in informing Congress about the true nature of the goals and underlying motivations of the BDS movement and its impact on trade and economic growth. American policy must be designed to counteract BDS at every turn.    And, with that, I now recognize the gentleman from Massachusetts, Mr. Lynch, the ranking member, for his opening statement.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I would like to thank you for you holding this hearing to examine the boycott, divestment, and sanctions movement, also known as BDS.    And I would also like to welcome today's witnesses for helping the committee with its work.    It is the foreign policy of the United States Government to oppose boycotts against the state of Israel. Israel is our strongest regional ally, and the economic isolation of Israeli goods and services will only frustrate our efforts aimed at achieving a lasting peace in the Middle East.    The United States has consistently opposed the boycott of Israel declared by the Arab League in 1948. Most recently, Congress passed and President Obama signed an omnibus appropriations bill in December of 2014 that included language opposing the Arab League boycott as an impediment to peace in the region and called for its immediate termination.    As with the Arab League boycott, the United States Government opposes the boycott, divestment, and sanctions movement that commenced in 2005 under the organization of Palestinian civil society groups. As recently stated by State Department spokesman John Kirby, the United States has, ``strongly opposed boycotts, divestments, campaigns, and sanctions targeting the state of Israel and will continue to do so.''    Some Members of Congress have questioned the administration's willingness to enforce an anti-boycott provision included in the fast-track trade bill passed last month. The provision seeks to discourage foreign partners from implementing economic sanctions against the state of Israel and also makes reference to, ``Israeli-controlled territories.''    In response to this language, the State Department has reiterated strong U.S. opposition to boycotts against Israel, while also reaffirming similarly longstanding U.S. Policy on Israeli settlement activity. As noted by the State Department, ``Every U.S. administration since 1967, Republican and Democrat, has opposed Israeli settlement activity beyond the 1967 lines. This administration is no different, and our policy remains firm and unchanged.'' This policy is in complete harmony with the desire for a two-state solution.    Contrary to the criticism that has been voiced by some of our colleagues, I believe that the administration has been very clear in consistently applying the longstanding policy of the United States to oppose boycotts against the state of Israel.    I would also note that the bipartisan sponsors of the anti-boycott language included in the trade bill, Senator Cardin and Senator Portman, have been equally clear in stating that they never intended their amendment to legislate on settlements or contravene U.S. policy on the settlements. Rather, the language seeks to further discourage boycotts against Israel in accordance with longstanding policy.    I am aware that the BDS movement has become effective in some degree; it has had some impact. The bipartisan Congressional Research Service notes that divestment from Israel and boycotts of Israeli products and services have occurred to a certain extent. Mr. Birnbaum will testify, I am sure, on the economic impact of boycotts against his company, SodaStream, an Israeli manufacturer that had a manufacturing facility in the West Bank.    In December of 2013, the National Council of the American Studies Association, a nationwide academic organization, voted to boycott Israeli academic institutions. In recognition of the value of academic freedom and cooperation to foster peace in the Middle East, 134 Members of Congress, including myself, Members from both parties, sent a letter to the association in strong opposition to their decision.    Mr. Chairman, I look forward to discussing these and other issues relating to the BDS movement. And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,36 +70,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Dubowitz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dubowitz. Chairman DeSantis, Ranking Member Lynch, members of the subcommittee, on behalf of FDD and its Center on Sanctions and Illicit Finance, thank you very much for inviting me to testify today.    I want to step back and take a broader look at this. The BDS movement is a tool of political, economic, and financial warfare against Israel. Those waging this war seek to, first, isolate and delegitimize Israel and to turn it into an international pariah. From there, by threatening reputational consequences against Israeli business partners, imposing economic damages on Israel becomes an easier task.    Our research has determined that the economic and financial warfare campaign currently targeting Israel's relationship with Europe is the real goal. That relationship in trade terms is valued at about $30 billion.    My written testimony details the international organizations, religious institutions, private businesses, sovereign wealth funds, and universities that have joined in support of BDS in recent years. Most of them are European. They should all be identified publicly as having joined the economic and financial war against Israel.    Notably, several were pressured by BDS activists and the Palestinian Authority to terminate their business ties with Israel. They have targeted major Israeli financial institutions providing services to the West Bank and East Jerusalem through local branches. They have targeted international companies building the light-rail train system in Jerusalem. They have targeted Israeli academics and international entertainers with no connection to the West Bank or East Jerusalem. This is not just about the West Bank or East Jerusalem. It is about Israel.    For those well acquainted with economic and financial warfare, this is a familiar playbook, as pressure is ratcheted up on the target country to inflict increasing pain.    What is even more striking is that these entities have gone out of their way to single out Israel, the only democracy in the Middle East, for alleged injustices, while ignoring China, Russia, Iran, Syria, Sudan for their massive violations of human rights. This smacks of discrimination.    It is also a bad omen for the United States and our other allies, against whom many people around the world have grievances. Mr. Chairman, America and its allies must prepare for an increasingly dangerous era of political, economic, and financial warfare targeting the United States and our allies. This type of warfare is America's default instrument of coercive statecraft. It is also the new normal in the international arena. As always, Israel is the canary in the coal mine.    Many of our allies are involved in territorial disputes around the world. We may agree or disagree with their positions, but our ability and will to defend them from military, missile, cyber, WMD, and terrorist threats, amongst others, must never be dependent on our policies with respect to these territorial disputes. The same should be said about defending them against economic and financial threats.    Make no mistake: After watching the U.S. Treasury Department target Iran, Russia, and Syria with sophisticated sanctions and other advanced economic strategies, America's adversaries have been developing their own economic weapons.    Having witnessed the powerful impact of having Iran removed from the SWIFT banking system, last year pro-Palestinian organizations petitioned SWIFT to disconnect Israeli financial institutions. SWIFT explained that it would not take action without direction from EU regulators, who for now have refused this request. This could change.    Meanwhile, China has used economic and other coercive measures to challenge Japan, the Philippines, and our other Asian allies over the South China Sea and frequently has used economic and diplomatic pressure to challenge international recognition of Taiwan.    Russia has used political and energy warfare to threaten Eastern and Central European allies in order to try and reestablish what it considers its sphere of influence. Both China and Russia have used cyber warfare against the United States and our allies.    For now, America and its allies are vulnerable but buttressed by the fact that the U.S. dominates the global economy because of the power of the U.S. Dollar. This will not last forever. China, Russia, and others are already looking at creating a parallel financial system free from American influence.    Make no mistake: An economic war is undeniably underway, and that war is now expanding to America's allies too. As the BDS movement has made clear, Israel is among them.    Mr. Chairman, my written testimony outlines the important legislative efforts underway at the State and Federal level to protect Israel and our other allies from this economic and financial war. Congress must encourage this, but more can be done.    The United States needs to create an economic defensive shield to protect us and our allies against economic and financial coercion. Congress is well placed to lead that effort.    In my written testimony, I outline a number of recommendations, including: establishing a policy planning function at the U.S. Treasury Department; standing up an economic warfare directorate at the NSC; developing a doctrine on the use of economic warfare; and establishing an economic warfare command.    We have entered a new era, and new structures are needed to defend the U.S. and its allies from this type of warfare. I recommend that this subcommittee work with other relevant congressional committees and the administration to institute these government reforms.    In conclusion, BDS is a form of economic and financial coercion that should be viewed within a broader problem set. To counter it properly, this challenge must be addressed at a more strategic level. Failure to do so will leave the United States and our allies vulnerable to attack from economic and financial warfare.    Thank you for inviting me to testify. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you.    The chair now recognizes Mr. Birnbaum for 5 minutes.</t>
   </si>
   <si>
-    <t>Birnbaum</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Birnbaum. Chairman DeSantis, Ranking Member Lynch, members of the subcommittee, good afternoon, and thank you for the opportunity to testify on the BDS today.    For the past 8 years, I have been the CEO of SodaStream International, a company publicly traded on the NASDAQ and headquartered in Israel. SodaStream is the world's leading manufacturer and distributor of home carbonation systems. Our products are available in 45 countries around the world and sold at 70,000 stores, including 13,500 here in the United States. The products are manufactured at 12 facilities around the world, including 1 in New Jersey. However, our largest facility is in the Mishor Adumim industrial zone of the West Bank.    I am speaking to you today because SodaStream has been a primary target of the BDS and its affiliates since my early days with the company 8 years ago. Here is the story in a nutshell.    In all the craziness of the Middle East, in the midst of all the distrust, separation, hate, and violence, there is one factory that proves that things can be different, one factory that is an island of peace, where Palestinians and Israeli Jews work side-by-side--equal wages, equal benefits, and equal opportunity. In total, this factory employs 1,300 people, of whom 400 are Israeli Jews, 400 are Israeli Arabs, and 500 are Palestinians from the West Bank. We eat together in the same dining hall, and we celebrate each other's festivals.    The wages we pay in this factory are according to Israeli law--wages which are three to four times higher than what our Palestinian workers could earn if they had a job in the PA. We provide a healthcare package for all our workers and their families that includes physician home visits, prescription drugs, overseas treatments, and even organ transplants--all that at zero copay.    More broadly speaking, this factory, which may be the largest private employer in the West Bank, could also very well be the seeds of the budding economy of the future Palestinian state.    This factory is, or should I say was, a true gem in many ways, but the BDS thought otherwise. They have been attacking this factory in various campaigns and schemes all over the world, calling for its closure and effectively calling for the termination of its 1,300 employees.    The BDS have thrown all possible war crimes at us, accusing us of ethnic cleansing, stealing land, perpetuating the so-called occupation and profiting from it, exploiting our Palestinian workers, acting against international law, representing apartheid. Such a long and horrible list of infractions make it almost futile to defend.    BDS tactics include intimidating, harassing, and threatening of our retail partners around the world. BDS activities have been vandalizing our products in stores, stickering them with hate images, throwing product on the floor, stickering, picketing, chaining themselves to the entrances to the stores, conducting violent demonstrations and flash mob events, circulating pamphlets and utilizing social media to spread vile videos on YouTube, mobilizing mainstream media--all to manipulate our retailers to drop our product.    To provide the appearance of ``moral grounding and substantiation of international law,'' the BDS garnered support from churches, including churches here in the United States, from well-known NGOs, and support from European governments.    The BDS are in the business of manipulation, violence, and destruction, but, instead of using bullets and bombs, they use vicious lies and half-truths.    I would like to share with you just one example of a grotesque image broadly distributed in Europe and which is also featured at this very moment on a BDS Web site. On page 13 of my written submission, you will see this image that shows SodaStream product smeared with blood, and it reads in French, ``SodaStream: A product that kills. One product bought equals one family massacred.''    Are these not libelous statements that cross a line? A French court ruled in January 2014 that this conduct, specifically this image, is abusive and illegal, and the BDS was issued a cease-and-desist order and a punitive fine.    Last October, we took a business decision to relocate this facility to a much larger facility inside the 1967 international borders of Israel--a business decision. And how did the BDS respond? Well, as expected, they celebrated a big victory. They did not care that 5,000 Palestinians will lose their sustenance.    But what is really revealing is that the attacks are continuing even after we announced our departure from the West Bank. This shows the true agenda of the BDS.    To our amazement, we are now being accused of stealing land for our new factory from the adjacent Bedouin town of Rahat within Israel. This is simply preposterous. The reality is that we were invited here. In my written statement, you will see a letter by the mayor of Rahat, Talal El-Garnawi, stating that these claims are not only false but that are our factory is a blessing, bringing economic prosperity to his town.    Finally, the story of the 8-year hate campaign against SodaStream really exposes the true face of the BDS. It is evident that the BDS and its affiliates use the Palestinian people as a proxy to advance their political agenda grounded in the hate of Israel. Indeed, the BDS leaders have said many times that their true agenda is not to liberate the West Bank but, rather, to end the existence of the Jewish state of Israel. We shall not let that happen.    Chairman DeSantis, Ranking Member Lynch, subcommittee members, this concludes my prepared statement. I will be happy to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. I thank the gentleman.    The chair now recognizes Mr. Kontorovich for 5 minutes.</t>
   </si>
   <si>
-    <t>Kontorovich</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kontorovich. Chairman DeSantis, Ranking Member Lynch, honorable members of the committee, thank you for inviting me to testify today about the continued campaign of economic warfare against Israel.    The campaign of economic warfare against Israel dates back to the birth of the Jewish state. Starting in 1948, the Arab League organized a notorious campaign to isolate Israel. Not only did they block any economic ties between themselves and Israel, they pressured companies in third countries to also boycott Israel.    In the 1970s, at the height of the Arab League's boycott campaign, the U.S. passed laws making it a crime for U.S. entities to participate in the boycott. Since then, the Arab League boycott has fallen into decline and under-enforcement. Part of this has been due to these U.S. laws and U.S. pressure in trade negotiations. Partly, it has been due to changing Arab attitudes towards Israel.    As Arab states were increasing their trade with Israel, the old boycott campaign developed a new face. At the Durban Forum in 2001, anti-Israel groups, coordinated by U.N. Agencies, adopted boycotts and sanctions as a policy tool to isolate Israel. Thus, private actors appear today at the forefront of boycott campaigns today, but the strategy is the same as the Arab League pursued: to choke off and delegitimize Israel.    Several legislative initiatives in Congress seek to update U.S. Laws to deal with the new face of the boycott movement. Part of this legislation has passed in the TPA, and another important part, contained in H.R. 1907, is currently in conference. These laws are merely mild updatings of the traditional U.S. Approach to Israel boycotts. They have received across-the-board, unanimous support in Congress.    Nonetheless, some object to the anti-boycott laws because they would also apply to boycotts that also are directed at entities in, ``territories under Israel jurisdiction,'' which means West Jerusalem, the Golan Heights, and other parts of the West Bank. Contrary to the entirely unsupported claims of these critics, this is also entirely consistent with U.S. Law and policy.    The existing anti-boycott laws also apply to boycotts of any Israeli nationals or companies, regardless of their location. No one has ever objected to this or sought to limit the application. In signing the 1977 anti-Arab-League-boycott law, President Carter observed that the issue goes to the very heart of free trade amongst nations and that boycotts were, in fact, divisive measures aimed particularly at Jews. President Carter and no one else has ever suggested that the anti-boycott laws be limited to Israeli companies in any particular location.    Moreover, the U.S.-Israel Free Trade Agreement, passed in 1985 and expanded in 1996, expressly allows Israeli products from the West Bank to receive the same status for U.S. trade purposes as any other Israeli products. As reflected in the U.S.-Israel Free Trade Agreement Implementation Act, this was immediately put into effect by President Clinton.    Indeed, there is no basis in U.S. law for disallowing Congress to apply particular laws, trade laws, or other lawful measures to the West Bank or any other territories. Nor does this contradict U.S. foreign policy. While the Executive has indeed at times opposed settlement expansion or settlement construction--that is to say, adding homes for Jews in the disputed territory--no administration has ever opposed business activity there. Indeed, the U.S. Has long recognized that peace depends on increased prosperity and economic integration.    Moreover, boycotts do not seek to prevent settlement growth. Rather, their express goal is to choke off and eliminate all Jewish presence, even mere business activity, in the disputed areas, including ones that would surely come under Israeli sovereignty in any peace deal. This fundamentally contradicts U.S. policy, dating back to 1967, that any ultimate parameters must be negotiated.    Finally, this language, this now-controversial language, is necessary to prevent anti-boycott laws from becoming indeterminate and incoherent. For example, language referring to territories controlled by Israel is necessary simply to have such laws applies to western Jerusalem. As is well known, the position of the administration and several administrations is that western Jerusalem is not part of the state of Israel. Thus, if Congress wishes to ensure that its trade measures and laws concerning Israel apply to western Jerusalem, language like ``territories under Israeli jurisdiction'' is needed. And that is based on the administration's own view in the Zivotofsky case.    Moreover, boycotts of settlements are not self-limiting, because settlements are not businesses. Business is one thing; settlements are another. What about the Tel Aviv tour operator that goes to the Old City, organizes a tour? That could fall within the boycott movement in European sanctions. On the other hand, we know that even the President of the United States has visited the Old City. This is not what people mean by ``settlements.''    There is nothing internationally illegal about doing business in the territories. One does not need to be a supporter of settlements to understand this. Just last year, a prestigious French appeals court ruled that French and international law allows French companies and businesses to do business with the Israeli Government in these areas.    Finally, as I elaborate in my written testimony, the planned EU trade restrictions, which some of these measures go to, would violate multiple provisions of the General Agreement on Trade and Tariffs.    Let me conclude with some brief recommendations. Congress should quickly pass H.R. 1907 to make clear that these measures are violations of the GATT, to encourage States to continue to pass laws dealing with boycotts, and to protect United States companies from discriminatory and baseless foreign judgments based on perversions of international law.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. I thank the gentleman.    The chair now recognizes Mr. Duss for 5 minutes.</t>
   </si>
   <si>
-    <t>Duss</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duss. Chairman DeSantis, Ranking Member Lynch, members of the subcommittee, thank you very much for inviting me here to speak to you on this timely issue.    In the 10 years since it commenced, the BDS movement has slowly but steadily risen in visibility. I would like to focus today on the role that this movement has been playing recently in the United States, particularly with regard to recent congressional legislation.    In order to do that, I want to first take a moment to identify just what we are talking about when we discuss BDS.    This movement has three main demands. The first is an end to the occupation that began in 1967. The second is equal rights for Palestinian citizens within Israel. The third is protecting and promoting the rights of Palestinian refugees to return to their homes in what is today Israel.    This movement is distinct from many peace activists in Israel, Palestine, the United States, Europe, and elsewhere who support boycotts of settlement products and divestment of businesses profiting from the 48-year-old occupation of the West Bank, Gaza, and East Jerusalem as part of an effort to preserve the possibility of a two-state solution to the Israeli-Palestinian conflict.    Crucially, the BDS movement is also distinct from the recent moves by the European Union to more aggressively distinguish between Israel within the pre-1967 lines, known as the Green Line, and the occupied territories.    This is where we come to the recent trade legislation by Congress and the response from the State Department. With the stated intention of protecting Israel from BDS, the recently passed Trade Promotion Authority contained a provision that implied a significant shift in the policy of the United States since 1967. The provision requires the U.S. Trade Representative to discourage European Union countries from boycotting, ``Israel or persons doing business in Israel or Israeli-controlled territories.''    This is why I think it was important and appropriate for the State Department to offer a clarification, as it did upon passage of the trade bill, stating that the U.S. will continue to make the distinction between Israel and the occupied territories, as the United States has done since 1967.    Now, I can talk more about this in the Q&amp;A, and my written statement contains more detailed analysis, but, to the extent that one sees BDS actions as part of an effort to delegitimize Israel--and I think that's clearly the case with regard to a number of the leaders of the movement--they should certainly be addressed but, I would advise, not through legislation. Israel has protections it needs and deserves under existing U.S. Law. The arguments raised by the BDS movement in academic and other civil society institutions should be addressed in the American tradition, with thoughtful, considered, and ethical counter-arguments.    I would also take a moment here to suggest that it is a mistake to focus on the BDS movement while ignoring the main reason for its continued growth, which is the failure to end the occupation that began in 1967 and achieve Palestinian freedom and sovereignty. If one is genuinely concerned about the impact of the BDS movement, the surest way to take the wind out of its sails and arrest its growth would be to work to achieve those goals and act against efforts which prevent or foreclose them.    Moreover, it would be counterproductive to give BDS an unearned victory here by cooperating in any way with the conflation of Israel and the occupied Palestinian territories. We can and must support Israel in defending herself against actions that genuinely threaten her security and legitimacy. This has been a consistent American position since Israel's birth.    Another consistent American position, however, has been in opposing the creation of Israeli settlements, which have been deemed illegitimate and an obstacle to peace by every U.S. President since 1967. Efforts to blur that distinction are just as dangerous to Israel's existence as a Jewish and democratic state as attacks on Israel's legitimacy itself. It is entirely consistent with longstanding U.S. policy, and, indeed, necessary to preserve the ultimate goal of a two-state solution, to continue to make that distinction in U.S. Policy and law.    I thank you, gentlemen, for your time and attention and look forward to your questions.</t>
   </si>
   <si>
@@ -205,9 +187,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    Mr. Chairman, in his submitted remarks, Mr. Duss notes that arguments by the BDS should be addressed in the American tradition, with thoughtful, considered, and ethical counter-arguments.    I would like to note for the record that Mr. Duss' father has accused Israel of war crimes and claimed that modern Israelis are not descended from Biblical Jews.    I would also like to note for the record that Mr. Duss' brother is infamous for his tweet, ``Why are so many Israeli politicians rapists?''    I would also like to note that Mr. Duss' work with the Center for American Progress reacted in the height of offensive anti-Semitic rhetoric when he attempted to build his views with Nazi-era posters on their ThinkProgress Web site. This drew an extremely rare rebuke of the Center for American Progress writers from the White House--a very rare thing, indeed--that these views and tactics were troubling.    In fact, this rebuke also further notes that the Simon Wiesenthal Center, the Anti-Defamation League, and the American Jewish Committee have all termed the anti-Israeli rhetoric of a Mr. Jilani and fellow Center for American Progress writers Eli Clifton, Ali Gharib, Matt Duss, and Ben Armbruster to be infected with Jew hatred and discriminatory policy positions towards Israel.    And so my question would be: Mr. Dubowitz, do you think that these types of arguments that are coming from this key witness that has been elevated to testify before Congress, are these thoughtful, considered, and ethical ways to approach the issue? Yes or no?</t>
   </si>
   <si>
@@ -233,9 +212,6 @@
   </si>
   <si>
     <t>412623</t>
-  </si>
-  <si>
-    <t>Jody B. Hice</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Mr. Dubowitz, do you believe that the BDS is going to positively or negatively impact the peace process between Israelis and Palestinians?</t>
@@ -700,11 +676,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -724,13 +698,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -752,11 +724,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -778,11 +748,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -802,13 +770,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -830,11 +796,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -854,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -882,11 +844,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -906,13 +866,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -934,11 +892,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -958,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -986,11 +940,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1010,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1038,11 +988,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1062,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1090,11 +1036,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1114,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1142,11 +1084,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1166,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1194,11 +1132,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1218,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1246,11 +1180,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1270,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1298,11 +1228,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1322,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1350,11 +1276,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1374,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1402,11 +1324,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1426,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1454,11 +1372,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1478,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1506,11 +1420,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1530,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1556,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1582,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1608,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1634,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1660,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1686,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1712,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1738,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1766,11 +1660,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1790,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1816,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1842,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1868,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1894,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1920,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1946,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>63</v>
-      </c>
-      <c r="H50" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1974,11 +1852,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1998,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2024,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2050,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2076,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2102,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2128,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2154,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>72</v>
-      </c>
-      <c r="G58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H58" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2180,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2206,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2232,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2258,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2286,11 +2140,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2310,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2338,11 +2188,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2362,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2390,11 +2236,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2414,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2442,11 +2284,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2466,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2492,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2518,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2546,11 +2380,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96874.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96874.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. The Subcommittee on National Security will come to order.    Without objection, the chair is authorized to declare a recess at any time.    The chair notes that he is responsible under the rules of the House and the rules of the committee to maintain order and preserve decorum in the committee room. And we will do that, and disruption of business will not be tolerated. Thank you very much.    The chair now recognizes himself for an opening statement.    BDS is the campaign for boycott, divestment, and sanctions against Israel. The BDS movement seeks to target the state of Israel for boycotts, divestments, and sanctions. The purported goal is to leverage negative treatment of Israel to procure peace in the region. However, it is clear that the ultimate goal of the BDS movement is not to simply exert pressure on Israel to alter domestic policies; they would like to isolate, delegitimize, and irrevocably cripple the Jewish state.    BDS supporter and professor at Cal State University As'ad AbuKhalil has said, ``The real aim of BDS is to bring down the state of Israel. That should be stated as an unambiguous goal. There should not be any equivocation on the subject. Justice and freedom for the Palestinians are incompatible with the existence of the state of Israel.''    Another supporter of BDS, writer John Spritzler, stated, ``BDS' stated goals logically imply the end of Israel as a Jewish state.''    The notion that BDS is simply a harmless political movement is not true. BDS is better understood as an attempt to single out the world's only Jewish state for negative treatment through economic warfare.    U.S. policy should actively oppose attempts to boycott, divest, and sanction Israel. As our most dependable ally in the Middle East, the region's only democracy, and a country that shares our values, Israel deserves our steadfast support. We need to nip BDS in the bud.    This hearing is timely in light of recent comments by the State Department spokesman regarding anti-BDS language contained in the trade authority bill recently passed by Congress. While the bill specifically mandates that U.S. Negotiators pressure potential trading partners to reject BDS, the State Department indicated it would not enforce the language.    Congress included the anti-BDS provision because it wanted to stymie efforts emanating particularly from European countries, where anti-Semitism unfortunately is at a post-World War II high, to target Israel. Congress needs to conduct oversight of the State Department to ensure compliance with the statutory law.    Now, BDS is not a mainstream position in the United States, but it has gained traction on college campuses and in European capitals.    The goals of BDS go beyond the idea of encouraging corporations and academic institutions to boycott and divest from businesses in Judea and Samaria. Support for BDS is curious in light of the fact that many advocates for BDS have no qualms with trading with rogue regimes, such as Iran. Indeed, these advocates seek to apply a completely separate standard to the world's only Jewish state, while turning a blind eye to militant Islamic regimes that threaten both Israel and the United States.    According to a recent study by the Israeli Finance Ministry, boycotts present a significant threat to Israel's economy. Boycotts threaten inflation, layoffs, and a potential 20-percent drop in exports. If European companies and governments were to support BDS, Israeli officials maintain such action would constitute a dramatic blow to the Israeli economy.    Israeli and American businesses have been impacted by BDS through divestment by major church groups in the United States, such as the Presbyterian Church (U.S.A.) and the United Church of Christ.    The bottom line is that support for BDS undermines Israel's economy and national security. It is a direct threat to the continued vitality and success of the state of Israel.    Today, we will hear from the CEO of SodaStream, Daniel Birnbaum, an Israeli company that has been the target of BDS. The BDS campaign has specifically targeted this company, which has since moved its factory out of Judea and Samaria, resulting in the loss of thousands--the loss of jobs for many of the Palestinians and Israelis alike.    In the case of SodaStream's factory in Judea and Samaria, which is now closed, an estimated 500 Palestinian Arabs were employed there, out of a total of 1,300 employees. While SodaStream is working to secure work permits from the Israeli Government for these Palestinians and other former employees at their new factory, the future employment opportunities for many of these workers remain uncertain. These are the very people who BDS claims it intends to help.    We will also hear from Professor Eugene Kontorovich. He was a major force behind the South Carolina law prohibiting companies who want to contract with the State government from participating in boycotts based on nationality, national origin, ethnicity, race, and other categories of discrimination. He will also discuss existing Federal law, international law, and the potential impact of BDS on the international trading system.    Mr. Mark Dubowitz, the executive director of Foundation for Defense of Democracies, will also be joining us. He has written extensively on the topic of the BDS movement.    Mr. Matthew Duss is the guest of my minority colleagues, and he is the president of the Foundation for Middle East Peace.    The bottom line is that, one, this hearing will be critical in informing Congress about the true nature of the goals and underlying motivations of the BDS movement and its impact on trade and economic growth. American policy must be designed to counteract BDS at every turn.    And, with that, I now recognize the gentleman from Massachusetts, Mr. Lynch, the ranking member, for his opening statement.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I would like to thank you for you holding this hearing to examine the boycott, divestment, and sanctions movement, also known as BDS.    And I would also like to welcome today's witnesses for helping the committee with its work.    It is the foreign policy of the United States Government to oppose boycotts against the state of Israel. Israel is our strongest regional ally, and the economic isolation of Israeli goods and services will only frustrate our efforts aimed at achieving a lasting peace in the Middle East.    The United States has consistently opposed the boycott of Israel declared by the Arab League in 1948. Most recently, Congress passed and President Obama signed an omnibus appropriations bill in December of 2014 that included language opposing the Arab League boycott as an impediment to peace in the region and called for its immediate termination.    As with the Arab League boycott, the United States Government opposes the boycott, divestment, and sanctions movement that commenced in 2005 under the organization of Palestinian civil society groups. As recently stated by State Department spokesman John Kirby, the United States has, ``strongly opposed boycotts, divestments, campaigns, and sanctions targeting the state of Israel and will continue to do so.''    Some Members of Congress have questioned the administration's willingness to enforce an anti-boycott provision included in the fast-track trade bill passed last month. The provision seeks to discourage foreign partners from implementing economic sanctions against the state of Israel and also makes reference to, ``Israeli-controlled territories.''    In response to this language, the State Department has reiterated strong U.S. opposition to boycotts against Israel, while also reaffirming similarly longstanding U.S. Policy on Israeli settlement activity. As noted by the State Department, ``Every U.S. administration since 1967, Republican and Democrat, has opposed Israeli settlement activity beyond the 1967 lines. This administration is no different, and our policy remains firm and unchanged.'' This policy is in complete harmony with the desire for a two-state solution.    Contrary to the criticism that has been voiced by some of our colleagues, I believe that the administration has been very clear in consistently applying the longstanding policy of the United States to oppose boycotts against the state of Israel.    I would also note that the bipartisan sponsors of the anti-boycott language included in the trade bill, Senator Cardin and Senator Portman, have been equally clear in stating that they never intended their amendment to legislate on settlements or contravene U.S. policy on the settlements. Rather, the language seeks to further discourage boycotts against Israel in accordance with longstanding policy.    I am aware that the BDS movement has become effective in some degree; it has had some impact. The bipartisan Congressional Research Service notes that divestment from Israel and boycotts of Israeli products and services have occurred to a certain extent. Mr. Birnbaum will testify, I am sure, on the economic impact of boycotts against his company, SodaStream, an Israeli manufacturer that had a manufacturing facility in the West Bank.    In December of 2013, the National Council of the American Studies Association, a nationwide academic organization, voted to boycott Israeli academic institutions. In recognition of the value of academic freedom and cooperation to foster peace in the Middle East, 134 Members of Congress, including myself, Members from both parties, sent a letter to the association in strong opposition to their decision.    Mr. Chairman, I look forward to discussing these and other issues relating to the BDS movement. And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -70,24 +85,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Dubowitz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Dubowitz. Chairman DeSantis, Ranking Member Lynch, members of the subcommittee, on behalf of FDD and its Center on Sanctions and Illicit Finance, thank you very much for inviting me to testify today.    I want to step back and take a broader look at this. The BDS movement is a tool of political, economic, and financial warfare against Israel. Those waging this war seek to, first, isolate and delegitimize Israel and to turn it into an international pariah. From there, by threatening reputational consequences against Israeli business partners, imposing economic damages on Israel becomes an easier task.    Our research has determined that the economic and financial warfare campaign currently targeting Israel's relationship with Europe is the real goal. That relationship in trade terms is valued at about $30 billion.    My written testimony details the international organizations, religious institutions, private businesses, sovereign wealth funds, and universities that have joined in support of BDS in recent years. Most of them are European. They should all be identified publicly as having joined the economic and financial war against Israel.    Notably, several were pressured by BDS activists and the Palestinian Authority to terminate their business ties with Israel. They have targeted major Israeli financial institutions providing services to the West Bank and East Jerusalem through local branches. They have targeted international companies building the light-rail train system in Jerusalem. They have targeted Israeli academics and international entertainers with no connection to the West Bank or East Jerusalem. This is not just about the West Bank or East Jerusalem. It is about Israel.    For those well acquainted with economic and financial warfare, this is a familiar playbook, as pressure is ratcheted up on the target country to inflict increasing pain.    What is even more striking is that these entities have gone out of their way to single out Israel, the only democracy in the Middle East, for alleged injustices, while ignoring China, Russia, Iran, Syria, Sudan for their massive violations of human rights. This smacks of discrimination.    It is also a bad omen for the United States and our other allies, against whom many people around the world have grievances. Mr. Chairman, America and its allies must prepare for an increasingly dangerous era of political, economic, and financial warfare targeting the United States and our allies. This type of warfare is America's default instrument of coercive statecraft. It is also the new normal in the international arena. As always, Israel is the canary in the coal mine.    Many of our allies are involved in territorial disputes around the world. We may agree or disagree with their positions, but our ability and will to defend them from military, missile, cyber, WMD, and terrorist threats, amongst others, must never be dependent on our policies with respect to these territorial disputes. The same should be said about defending them against economic and financial threats.    Make no mistake: After watching the U.S. Treasury Department target Iran, Russia, and Syria with sophisticated sanctions and other advanced economic strategies, America's adversaries have been developing their own economic weapons.    Having witnessed the powerful impact of having Iran removed from the SWIFT banking system, last year pro-Palestinian organizations petitioned SWIFT to disconnect Israeli financial institutions. SWIFT explained that it would not take action without direction from EU regulators, who for now have refused this request. This could change.    Meanwhile, China has used economic and other coercive measures to challenge Japan, the Philippines, and our other Asian allies over the South China Sea and frequently has used economic and diplomatic pressure to challenge international recognition of Taiwan.    Russia has used political and energy warfare to threaten Eastern and Central European allies in order to try and reestablish what it considers its sphere of influence. Both China and Russia have used cyber warfare against the United States and our allies.    For now, America and its allies are vulnerable but buttressed by the fact that the U.S. dominates the global economy because of the power of the U.S. Dollar. This will not last forever. China, Russia, and others are already looking at creating a parallel financial system free from American influence.    Make no mistake: An economic war is undeniably underway, and that war is now expanding to America's allies too. As the BDS movement has made clear, Israel is among them.    Mr. Chairman, my written testimony outlines the important legislative efforts underway at the State and Federal level to protect Israel and our other allies from this economic and financial war. Congress must encourage this, but more can be done.    The United States needs to create an economic defensive shield to protect us and our allies against economic and financial coercion. Congress is well placed to lead that effort.    In my written testimony, I outline a number of recommendations, including: establishing a policy planning function at the U.S. Treasury Department; standing up an economic warfare directorate at the NSC; developing a doctrine on the use of economic warfare; and establishing an economic warfare command.    We have entered a new era, and new structures are needed to defend the U.S. and its allies from this type of warfare. I recommend that this subcommittee work with other relevant congressional committees and the administration to institute these government reforms.    In conclusion, BDS is a form of economic and financial coercion that should be viewed within a broader problem set. To counter it properly, this challenge must be addressed at a more strategic level. Failure to do so will leave the United States and our allies vulnerable to attack from economic and financial warfare.    Thank you for inviting me to testify. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you.    The chair now recognizes Mr. Birnbaum for 5 minutes.</t>
   </si>
   <si>
+    <t>Birnbaum</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Birnbaum. Chairman DeSantis, Ranking Member Lynch, members of the subcommittee, good afternoon, and thank you for the opportunity to testify on the BDS today.    For the past 8 years, I have been the CEO of SodaStream International, a company publicly traded on the NASDAQ and headquartered in Israel. SodaStream is the world's leading manufacturer and distributor of home carbonation systems. Our products are available in 45 countries around the world and sold at 70,000 stores, including 13,500 here in the United States. The products are manufactured at 12 facilities around the world, including 1 in New Jersey. However, our largest facility is in the Mishor Adumim industrial zone of the West Bank.    I am speaking to you today because SodaStream has been a primary target of the BDS and its affiliates since my early days with the company 8 years ago. Here is the story in a nutshell.    In all the craziness of the Middle East, in the midst of all the distrust, separation, hate, and violence, there is one factory that proves that things can be different, one factory that is an island of peace, where Palestinians and Israeli Jews work side-by-side--equal wages, equal benefits, and equal opportunity. In total, this factory employs 1,300 people, of whom 400 are Israeli Jews, 400 are Israeli Arabs, and 500 are Palestinians from the West Bank. We eat together in the same dining hall, and we celebrate each other's festivals.    The wages we pay in this factory are according to Israeli law--wages which are three to four times higher than what our Palestinian workers could earn if they had a job in the PA. We provide a healthcare package for all our workers and their families that includes physician home visits, prescription drugs, overseas treatments, and even organ transplants--all that at zero copay.    More broadly speaking, this factory, which may be the largest private employer in the West Bank, could also very well be the seeds of the budding economy of the future Palestinian state.    This factory is, or should I say was, a true gem in many ways, but the BDS thought otherwise. They have been attacking this factory in various campaigns and schemes all over the world, calling for its closure and effectively calling for the termination of its 1,300 employees.    The BDS have thrown all possible war crimes at us, accusing us of ethnic cleansing, stealing land, perpetuating the so-called occupation and profiting from it, exploiting our Palestinian workers, acting against international law, representing apartheid. Such a long and horrible list of infractions make it almost futile to defend.    BDS tactics include intimidating, harassing, and threatening of our retail partners around the world. BDS activities have been vandalizing our products in stores, stickering them with hate images, throwing product on the floor, stickering, picketing, chaining themselves to the entrances to the stores, conducting violent demonstrations and flash mob events, circulating pamphlets and utilizing social media to spread vile videos on YouTube, mobilizing mainstream media--all to manipulate our retailers to drop our product.    To provide the appearance of ``moral grounding and substantiation of international law,'' the BDS garnered support from churches, including churches here in the United States, from well-known NGOs, and support from European governments.    The BDS are in the business of manipulation, violence, and destruction, but, instead of using bullets and bombs, they use vicious lies and half-truths.    I would like to share with you just one example of a grotesque image broadly distributed in Europe and which is also featured at this very moment on a BDS Web site. On page 13 of my written submission, you will see this image that shows SodaStream product smeared with blood, and it reads in French, ``SodaStream: A product that kills. One product bought equals one family massacred.''    Are these not libelous statements that cross a line? A French court ruled in January 2014 that this conduct, specifically this image, is abusive and illegal, and the BDS was issued a cease-and-desist order and a punitive fine.    Last October, we took a business decision to relocate this facility to a much larger facility inside the 1967 international borders of Israel--a business decision. And how did the BDS respond? Well, as expected, they celebrated a big victory. They did not care that 5,000 Palestinians will lose their sustenance.    But what is really revealing is that the attacks are continuing even after we announced our departure from the West Bank. This shows the true agenda of the BDS.    To our amazement, we are now being accused of stealing land for our new factory from the adjacent Bedouin town of Rahat within Israel. This is simply preposterous. The reality is that we were invited here. In my written statement, you will see a letter by the mayor of Rahat, Talal El-Garnawi, stating that these claims are not only false but that are our factory is a blessing, bringing economic prosperity to his town.    Finally, the story of the 8-year hate campaign against SodaStream really exposes the true face of the BDS. It is evident that the BDS and its affiliates use the Palestinian people as a proxy to advance their political agenda grounded in the hate of Israel. Indeed, the BDS leaders have said many times that their true agenda is not to liberate the West Bank but, rather, to end the existence of the Jewish state of Israel. We shall not let that happen.    Chairman DeSantis, Ranking Member Lynch, subcommittee members, this concludes my prepared statement. I will be happy to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. I thank the gentleman.    The chair now recognizes Mr. Kontorovich for 5 minutes.</t>
   </si>
   <si>
+    <t>Kontorovich</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kontorovich. Chairman DeSantis, Ranking Member Lynch, honorable members of the committee, thank you for inviting me to testify today about the continued campaign of economic warfare against Israel.    The campaign of economic warfare against Israel dates back to the birth of the Jewish state. Starting in 1948, the Arab League organized a notorious campaign to isolate Israel. Not only did they block any economic ties between themselves and Israel, they pressured companies in third countries to also boycott Israel.    In the 1970s, at the height of the Arab League's boycott campaign, the U.S. passed laws making it a crime for U.S. entities to participate in the boycott. Since then, the Arab League boycott has fallen into decline and under-enforcement. Part of this has been due to these U.S. laws and U.S. pressure in trade negotiations. Partly, it has been due to changing Arab attitudes towards Israel.    As Arab states were increasing their trade with Israel, the old boycott campaign developed a new face. At the Durban Forum in 2001, anti-Israel groups, coordinated by U.N. Agencies, adopted boycotts and sanctions as a policy tool to isolate Israel. Thus, private actors appear today at the forefront of boycott campaigns today, but the strategy is the same as the Arab League pursued: to choke off and delegitimize Israel.    Several legislative initiatives in Congress seek to update U.S. Laws to deal with the new face of the boycott movement. Part of this legislation has passed in the TPA, and another important part, contained in H.R. 1907, is currently in conference. These laws are merely mild updatings of the traditional U.S. Approach to Israel boycotts. They have received across-the-board, unanimous support in Congress.    Nonetheless, some object to the anti-boycott laws because they would also apply to boycotts that also are directed at entities in, ``territories under Israel jurisdiction,'' which means West Jerusalem, the Golan Heights, and other parts of the West Bank. Contrary to the entirely unsupported claims of these critics, this is also entirely consistent with U.S. Law and policy.    The existing anti-boycott laws also apply to boycotts of any Israeli nationals or companies, regardless of their location. No one has ever objected to this or sought to limit the application. In signing the 1977 anti-Arab-League-boycott law, President Carter observed that the issue goes to the very heart of free trade amongst nations and that boycotts were, in fact, divisive measures aimed particularly at Jews. President Carter and no one else has ever suggested that the anti-boycott laws be limited to Israeli companies in any particular location.    Moreover, the U.S.-Israel Free Trade Agreement, passed in 1985 and expanded in 1996, expressly allows Israeli products from the West Bank to receive the same status for U.S. trade purposes as any other Israeli products. As reflected in the U.S.-Israel Free Trade Agreement Implementation Act, this was immediately put into effect by President Clinton.    Indeed, there is no basis in U.S. law for disallowing Congress to apply particular laws, trade laws, or other lawful measures to the West Bank or any other territories. Nor does this contradict U.S. foreign policy. While the Executive has indeed at times opposed settlement expansion or settlement construction--that is to say, adding homes for Jews in the disputed territory--no administration has ever opposed business activity there. Indeed, the U.S. Has long recognized that peace depends on increased prosperity and economic integration.    Moreover, boycotts do not seek to prevent settlement growth. Rather, their express goal is to choke off and eliminate all Jewish presence, even mere business activity, in the disputed areas, including ones that would surely come under Israeli sovereignty in any peace deal. This fundamentally contradicts U.S. policy, dating back to 1967, that any ultimate parameters must be negotiated.    Finally, this language, this now-controversial language, is necessary to prevent anti-boycott laws from becoming indeterminate and incoherent. For example, language referring to territories controlled by Israel is necessary simply to have such laws applies to western Jerusalem. As is well known, the position of the administration and several administrations is that western Jerusalem is not part of the state of Israel. Thus, if Congress wishes to ensure that its trade measures and laws concerning Israel apply to western Jerusalem, language like ``territories under Israeli jurisdiction'' is needed. And that is based on the administration's own view in the Zivotofsky case.    Moreover, boycotts of settlements are not self-limiting, because settlements are not businesses. Business is one thing; settlements are another. What about the Tel Aviv tour operator that goes to the Old City, organizes a tour? That could fall within the boycott movement in European sanctions. On the other hand, we know that even the President of the United States has visited the Old City. This is not what people mean by ``settlements.''    There is nothing internationally illegal about doing business in the territories. One does not need to be a supporter of settlements to understand this. Just last year, a prestigious French appeals court ruled that French and international law allows French companies and businesses to do business with the Israeli Government in these areas.    Finally, as I elaborate in my written testimony, the planned EU trade restrictions, which some of these measures go to, would violate multiple provisions of the General Agreement on Trade and Tariffs.    Let me conclude with some brief recommendations. Congress should quickly pass H.R. 1907 to make clear that these measures are violations of the GATT, to encourage States to continue to pass laws dealing with boycotts, and to protect United States companies from discriminatory and baseless foreign judgments based on perversions of international law.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. I thank the gentleman.    The chair now recognizes Mr. Duss for 5 minutes.</t>
   </si>
   <si>
+    <t>Duss</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duss. Chairman DeSantis, Ranking Member Lynch, members of the subcommittee, thank you very much for inviting me here to speak to you on this timely issue.    In the 10 years since it commenced, the BDS movement has slowly but steadily risen in visibility. I would like to focus today on the role that this movement has been playing recently in the United States, particularly with regard to recent congressional legislation.    In order to do that, I want to first take a moment to identify just what we are talking about when we discuss BDS.    This movement has three main demands. The first is an end to the occupation that began in 1967. The second is equal rights for Palestinian citizens within Israel. The third is protecting and promoting the rights of Palestinian refugees to return to their homes in what is today Israel.    This movement is distinct from many peace activists in Israel, Palestine, the United States, Europe, and elsewhere who support boycotts of settlement products and divestment of businesses profiting from the 48-year-old occupation of the West Bank, Gaza, and East Jerusalem as part of an effort to preserve the possibility of a two-state solution to the Israeli-Palestinian conflict.    Crucially, the BDS movement is also distinct from the recent moves by the European Union to more aggressively distinguish between Israel within the pre-1967 lines, known as the Green Line, and the occupied territories.    This is where we come to the recent trade legislation by Congress and the response from the State Department. With the stated intention of protecting Israel from BDS, the recently passed Trade Promotion Authority contained a provision that implied a significant shift in the policy of the United States since 1967. The provision requires the U.S. Trade Representative to discourage European Union countries from boycotting, ``Israel or persons doing business in Israel or Israeli-controlled territories.''    This is why I think it was important and appropriate for the State Department to offer a clarification, as it did upon passage of the trade bill, stating that the U.S. will continue to make the distinction between Israel and the occupied territories, as the United States has done since 1967.    Now, I can talk more about this in the Q&amp;A, and my written statement contains more detailed analysis, but, to the extent that one sees BDS actions as part of an effort to delegitimize Israel--and I think that's clearly the case with regard to a number of the leaders of the movement--they should certainly be addressed but, I would advise, not through legislation. Israel has protections it needs and deserves under existing U.S. Law. The arguments raised by the BDS movement in academic and other civil society institutions should be addressed in the American tradition, with thoughtful, considered, and ethical counter-arguments.    I would also take a moment here to suggest that it is a mistake to focus on the BDS movement while ignoring the main reason for its continued growth, which is the failure to end the occupation that began in 1967 and achieve Palestinian freedom and sovereignty. If one is genuinely concerned about the impact of the BDS movement, the surest way to take the wind out of its sails and arrest its growth would be to work to achieve those goals and act against efforts which prevent or foreclose them.    Moreover, it would be counterproductive to give BDS an unearned victory here by cooperating in any way with the conflation of Israel and the occupied Palestinian territories. We can and must support Israel in defending herself against actions that genuinely threaten her security and legitimacy. This has been a consistent American position since Israel's birth.    Another consistent American position, however, has been in opposing the creation of Israeli settlements, which have been deemed illegitimate and an obstacle to peace by every U.S. President since 1967. Efforts to blur that distinction are just as dangerous to Israel's existence as a Jewish and democratic state as attacks on Israel's legitimacy itself. It is entirely consistent with longstanding U.S. policy, and, indeed, necessary to preserve the ultimate goal of a two-state solution, to continue to make that distinction in U.S. Policy and law.    I thank you, gentlemen, for your time and attention and look forward to your questions.</t>
   </si>
   <si>
@@ -187,6 +214,12 @@
     <t>412650</t>
   </si>
   <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    Mr. Chairman, in his submitted remarks, Mr. Duss notes that arguments by the BDS should be addressed in the American tradition, with thoughtful, considered, and ethical counter-arguments.    I would like to note for the record that Mr. Duss' father has accused Israel of war crimes and claimed that modern Israelis are not descended from Biblical Jews.    I would also like to note for the record that Mr. Duss' brother is infamous for his tweet, ``Why are so many Israeli politicians rapists?''    I would also like to note that Mr. Duss' work with the Center for American Progress reacted in the height of offensive anti-Semitic rhetoric when he attempted to build his views with Nazi-era posters on their ThinkProgress Web site. This drew an extremely rare rebuke of the Center for American Progress writers from the White House--a very rare thing, indeed--that these views and tactics were troubling.    In fact, this rebuke also further notes that the Simon Wiesenthal Center, the Anti-Defamation League, and the American Jewish Committee have all termed the anti-Israeli rhetoric of a Mr. Jilani and fellow Center for American Progress writers Eli Clifton, Ali Gharib, Matt Duss, and Ben Armbruster to be infected with Jew hatred and discriminatory policy positions towards Israel.    And so my question would be: Mr. Dubowitz, do you think that these types of arguments that are coming from this key witness that has been elevated to testify before Congress, are these thoughtful, considered, and ethical ways to approach the issue? Yes or no?</t>
   </si>
   <si>
@@ -212,6 +245,12 @@
   </si>
   <si>
     <t>412623</t>
+  </si>
+  <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Mr. Dubowitz, do you believe that the BDS is going to positively or negatively impact the peace process between Israelis and Palestinians?</t>
@@ -626,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,7 +673,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,1733 +695,2038 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96874.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96874.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>DeSantis</t>
@@ -665,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +679,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,2035 +704,2196 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
